--- a/biology/Médecine/Physiopathologie/Physiopathologie.xlsx
+++ b/biology/Médecine/Physiopathologie/Physiopathologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La physiopathologie est une discipline de la biologie qui traite des dérèglements de la physiologie, c’est-à-dire les dérèglements du mode de fonctionnement normal des éléments constitutifs du corps humain, d'un animal ou d'un végétal. La physiopathologie envisage à la fois les mécanismes physiques, cellulaires ou biochimiques qui conduisent à l'apparition d'une maladie et les conséquences de celle-ci.
 À ce titre, l'étude physiopathologique d'une maladie permet non seulement de mieux en comprendre les signes cliniques et biologiques, mais aussi d'envisager les mécanismes par lesquels un traitement pourrait rétablir les fonctions normales de l'organe ou tissu atteint. On oppose ainsi deux modes de traitement :
